--- a/biology/Histoire de la zoologie et de la botanique/Jaques-Louis_Reverdin/Jaques-Louis_Reverdin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jaques-Louis_Reverdin/Jaques-Louis_Reverdin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jaques Louis Reverdin est un chirurgien et naturaliste suisse, né le 28 août 1842 à Cologny et mort le 9 janvier 1929 (à 86 ans) à Pregny. On lui doit les premières greffes cutanées.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après ses études à Paris (1862), il devient interne en 1865. Il enseigne la pathologie externe et les techniques à la faculté de médecine de Genève[1] .
-Il est notamment l'auteur de Greffe épidermique, expérience faite dans le service de M. le Docteur Guyon à l'hôpital Necker et des Leçons de chirurgie de guerre. Il donne son nom à une technique de greffe de peau. Son nom a aussi été donné à une maladie de la thyroïde[1].
-Jaques Louis Reverdin fonda la Revue médicale de la Suisse romande et inventa une aiguille à suturer révolutionnaire. Il fut également le responsable de l'ambulance suisse lors de la guerre franco-prussienne de 1870[2]. Il consacra la fin de sa vie aux lépidoptères[3].
-Il a deux fils, Isaac (1884-1940), médecin et Henri, professeur de philosophie[1], il écrira une biographie de son père.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études à Paris (1862), il devient interne en 1865. Il enseigne la pathologie externe et les techniques à la faculté de médecine de Genève .
+Il est notamment l'auteur de Greffe épidermique, expérience faite dans le service de M. le Docteur Guyon à l'hôpital Necker et des Leçons de chirurgie de guerre. Il donne son nom à une technique de greffe de peau. Son nom a aussi été donné à une maladie de la thyroïde.
+Jaques Louis Reverdin fonda la Revue médicale de la Suisse romande et inventa une aiguille à suturer révolutionnaire. Il fut également le responsable de l'ambulance suisse lors de la guerre franco-prussienne de 1870. Il consacra la fin de sa vie aux lépidoptères.
+Il a deux fils, Isaac (1884-1940), médecin et Henri, professeur de philosophie, il écrira une biographie de son père.
 </t>
         </is>
       </c>
